--- a/data/trans_camb/P5_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 29,02</t>
+          <t>-17,33; 17,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 9,92</t>
+          <t>-15,69; 16,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 14,98</t>
+          <t>-11,18; 13,83</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>-5,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>1,43%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,9; 241,15</t>
+          <t>-67,07; 185,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 107,13</t>
+          <t>-64,62; 174,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 120,9</t>
+          <t>-47,53; 123,08</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,4</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 6,97</t>
+          <t>-8,32; 10,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 7,34</t>
+          <t>-7,15; 7,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,66</t>
+          <t>-5,13; 6,65</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,35%</t>
+          <t>5,09%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>-0,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 48,62</t>
+          <t>-36,03; 73,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 73,92</t>
+          <t>-44,44; 74,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 34,35</t>
+          <t>-27,51; 53,88</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 12,66</t>
+          <t>-8,88; 13,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 4,74</t>
+          <t>-7,07; 6,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 6,15</t>
+          <t>-5,06; 6,91</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>6,17%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,79; 92,92</t>
+          <t>-34,03; 88,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,67; 54,77</t>
+          <t>-45,83; 81,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-23,93; 50,23</t>
+          <t>-28,97; 50,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 7,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 4,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 4,71</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,76; 47,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,68; 40,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 34,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,24; 8,46</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 4,88</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,27; 4,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-23,42; 53,63</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-29,8; 46,46</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-18,58; 33,23</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P5_2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P5_2-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.647745348473141</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.008295551942569</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>2.836502423562265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-17,33; 17,64</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-15,69; 16,88</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,18; 13,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-14.91995921945727</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-14.6529348675233</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.132682231313918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,57%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,73%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,43%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>22.4098792038697</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.59520700899954</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.60301178721411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-67,07; 185,98</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-64,62; 174,49</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-47,53; 123,08</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.1530292752062424</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.1730056748164847</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1635047383742512</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.6122546972361063</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.6004616870696677</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.4004918809898634</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,32; 10,42</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,15; 7,21</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-5,13; 6,65</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>2.582475331044749</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.853472010377675</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.613737053419801</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>5,09%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,76%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,53%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.3720033105259202</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.7312923114661252</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5131706426251159</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-36,03; 73,91</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-44,44; 74,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-27,51; 53,88</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.972159484524873</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.571172694912899</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-5.252495139351362</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>2,18</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,97</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>10.00537819106498</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>8.204692130439335</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.122268385719418</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,88; 13,74</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; 6,84</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,06; 6,91</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.01946160860135661</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.05881341199576093</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.03275759414428926</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>10,73%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,89%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,17%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.3876411747271431</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4268367428433046</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2798115997223319</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-34,03; 88,41</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-45,83; 81,07</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-28,97; 50,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.6829144784219626</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.9111179785305139</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.5528686821584512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.696823206232703</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-0.04067580790876185</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.8423895115496544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.29088939811027</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-7.118907606767909</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.218009283002505</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>13.09239077212606</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.630416990875545</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>6.811928115688448</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.0835218202892237</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.003396996018939203</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.05376207330626907</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>1,12</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3607361696607894</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.4638002293380418</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2860969749063954</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-5,24; 8,46</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-4,6; 4,88</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 4,62</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.9024663689331442</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.7616560386970624</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.5202890560028965</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>1.202230890351508</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>0.7286188969477442</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.9644294162586303</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-23,42; 53,63</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-29,8; 46,46</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-18,58; 33,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-4.954319756575678</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-4.176124205334005</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.94188524805056</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.650410179553885</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>5.423310567181352</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.008558911004817</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>0.06222260602493384</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.05641265928844862</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>0.06067061368846224</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.2294139210974663</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2828264975413782</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1647769077301624</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.5166290744623845</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.5568471909740784</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.3535103456956978</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
